--- a/data/pca/factorExposure/factorExposure_2011-11-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009847525858968968</v>
+        <v>0.01233188015780204</v>
       </c>
       <c r="C2">
-        <v>-0.03269295501207431</v>
+        <v>-0.02243431117845569</v>
       </c>
       <c r="D2">
-        <v>0.01682951546657554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02436613970348805</v>
+      </c>
+      <c r="E2">
+        <v>-0.008652005418295146</v>
+      </c>
+      <c r="F2">
+        <v>0.03132446738103255</v>
+      </c>
+      <c r="G2">
+        <v>0.002937389858414566</v>
+      </c>
+      <c r="H2">
+        <v>0.02177969117379592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07283368353848053</v>
+        <v>0.0873869385105118</v>
       </c>
       <c r="C4">
-        <v>-0.06193808359510086</v>
+        <v>-0.02466528007558077</v>
       </c>
       <c r="D4">
-        <v>0.07049853446270724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07895280690766136</v>
+      </c>
+      <c r="E4">
+        <v>-0.01035461961721068</v>
+      </c>
+      <c r="F4">
+        <v>0.04228564452219748</v>
+      </c>
+      <c r="G4">
+        <v>0.01886353785422191</v>
+      </c>
+      <c r="H4">
+        <v>-0.0414779312929754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.107948628401538</v>
+        <v>0.1218934610961576</v>
       </c>
       <c r="C6">
-        <v>-0.06129694082383625</v>
+        <v>-0.04045059595069106</v>
       </c>
       <c r="D6">
-        <v>0.0001981861596603398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01930328572228071</v>
+      </c>
+      <c r="E6">
+        <v>0.02249079672457275</v>
+      </c>
+      <c r="F6">
+        <v>0.03876414828882542</v>
+      </c>
+      <c r="G6">
+        <v>0.04395966267025609</v>
+      </c>
+      <c r="H6">
+        <v>0.1552867543459206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0558103470960294</v>
+        <v>0.06519260917358308</v>
       </c>
       <c r="C7">
-        <v>-0.03959060851819855</v>
+        <v>-0.01020628270250713</v>
       </c>
       <c r="D7">
-        <v>0.02981881509316851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05577581789194291</v>
+      </c>
+      <c r="E7">
+        <v>-0.026626898635398</v>
+      </c>
+      <c r="F7">
+        <v>0.0453506033544312</v>
+      </c>
+      <c r="G7">
+        <v>-0.02577978746605864</v>
+      </c>
+      <c r="H7">
+        <v>-0.02721325769621884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04100428936368888</v>
+        <v>0.04445381017064871</v>
       </c>
       <c r="C8">
-        <v>-0.01861767724362965</v>
+        <v>-0.004911364740903115</v>
       </c>
       <c r="D8">
-        <v>0.06138294487164574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03068361853345137</v>
+      </c>
+      <c r="E8">
+        <v>-0.008091633147898852</v>
+      </c>
+      <c r="F8">
+        <v>0.07297548375527103</v>
+      </c>
+      <c r="G8">
+        <v>0.08558237503546347</v>
+      </c>
+      <c r="H8">
+        <v>0.004018638707890338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07079313337848353</v>
+        <v>0.08030230063752501</v>
       </c>
       <c r="C9">
-        <v>-0.0492279122323889</v>
+        <v>-0.01425822075534429</v>
       </c>
       <c r="D9">
-        <v>0.06567406100556444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06955768096882663</v>
+      </c>
+      <c r="E9">
+        <v>-0.0238111116163004</v>
+      </c>
+      <c r="F9">
+        <v>0.03696751884009164</v>
+      </c>
+      <c r="G9">
+        <v>0.02937308575085928</v>
+      </c>
+      <c r="H9">
+        <v>-0.04607742371976583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02244340991563203</v>
+        <v>0.04894423587910416</v>
       </c>
       <c r="C10">
-        <v>-0.01518178285282533</v>
+        <v>-0.1001037791451204</v>
       </c>
       <c r="D10">
-        <v>-0.1723544536758992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1648673029457215</v>
+      </c>
+      <c r="E10">
+        <v>-0.03001572614535548</v>
+      </c>
+      <c r="F10">
+        <v>0.05990068340740769</v>
+      </c>
+      <c r="G10">
+        <v>-0.03372600646785565</v>
+      </c>
+      <c r="H10">
+        <v>0.03777368895824933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0669951623852922</v>
+        <v>0.07322753077108823</v>
       </c>
       <c r="C11">
-        <v>-0.04358198350416591</v>
+        <v>-0.00640985967526829</v>
       </c>
       <c r="D11">
-        <v>0.05709728312400265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06424811238069167</v>
+      </c>
+      <c r="E11">
+        <v>-0.002207849711554459</v>
+      </c>
+      <c r="F11">
+        <v>0.03487927788581102</v>
+      </c>
+      <c r="G11">
+        <v>0.04256390799285929</v>
+      </c>
+      <c r="H11">
+        <v>-0.06732524337252134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05787153657915496</v>
+        <v>0.06688758993803655</v>
       </c>
       <c r="C12">
-        <v>-0.05390840044453769</v>
+        <v>-0.01961246963251992</v>
       </c>
       <c r="D12">
-        <v>0.0450749795724695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.057011340441071</v>
+      </c>
+      <c r="E12">
+        <v>-0.00998236760076634</v>
+      </c>
+      <c r="F12">
+        <v>0.02391713697187063</v>
+      </c>
+      <c r="G12">
+        <v>0.01945071189276512</v>
+      </c>
+      <c r="H12">
+        <v>-0.03063966380248224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06885119260857235</v>
+        <v>0.06997094951299029</v>
       </c>
       <c r="C13">
-        <v>-0.05149847299038012</v>
+        <v>-0.01883915449868529</v>
       </c>
       <c r="D13">
-        <v>0.0337916923175337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0455725653437088</v>
+      </c>
+      <c r="E13">
+        <v>-0.007527391332254528</v>
+      </c>
+      <c r="F13">
+        <v>0.02108372115708856</v>
+      </c>
+      <c r="G13">
+        <v>0.02076064090170624</v>
+      </c>
+      <c r="H13">
+        <v>-0.05263038651224531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0292029740905295</v>
+        <v>0.03943386740591494</v>
       </c>
       <c r="C14">
-        <v>-0.03083832268307448</v>
+        <v>-0.02497017721218359</v>
       </c>
       <c r="D14">
-        <v>-0.007094634861967149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01904334301942073</v>
+      </c>
+      <c r="E14">
+        <v>-0.02651811416880571</v>
+      </c>
+      <c r="F14">
+        <v>0.01632148012237343</v>
+      </c>
+      <c r="G14">
+        <v>0.01500794590216055</v>
+      </c>
+      <c r="H14">
+        <v>-0.07123393850045073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04109995474965723</v>
+        <v>0.03976730665771582</v>
       </c>
       <c r="C15">
-        <v>-0.01613965123906469</v>
+        <v>-0.003098860421979734</v>
       </c>
       <c r="D15">
-        <v>0.02163673664336746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01229840785273699</v>
+      </c>
+      <c r="E15">
+        <v>-0.03305784863678759</v>
+      </c>
+      <c r="F15">
+        <v>0.004322147083872556</v>
+      </c>
+      <c r="G15">
+        <v>0.03089106196840548</v>
+      </c>
+      <c r="H15">
+        <v>-0.03236979349626868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0569157022383435</v>
+        <v>0.06957854830279887</v>
       </c>
       <c r="C16">
-        <v>-0.0415385553458028</v>
+        <v>-0.009842636809671144</v>
       </c>
       <c r="D16">
-        <v>0.05478164808087987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06527044749368369</v>
+      </c>
+      <c r="E16">
+        <v>-0.006172451994952641</v>
+      </c>
+      <c r="F16">
+        <v>0.03018264700015977</v>
+      </c>
+      <c r="G16">
+        <v>0.01688219392230069</v>
+      </c>
+      <c r="H16">
+        <v>-0.04949437735697312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06346871023287953</v>
+        <v>0.06311870723416607</v>
       </c>
       <c r="C20">
-        <v>-0.03161963953381454</v>
+        <v>-0.0004215616950247835</v>
       </c>
       <c r="D20">
-        <v>0.04483026189315271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04222151393229221</v>
+      </c>
+      <c r="E20">
+        <v>-0.005678125568012684</v>
+      </c>
+      <c r="F20">
+        <v>0.02582235818351889</v>
+      </c>
+      <c r="G20">
+        <v>0.01792444389823189</v>
+      </c>
+      <c r="H20">
+        <v>-0.05006193537620746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03299834627532428</v>
+        <v>0.02826617671121291</v>
       </c>
       <c r="C21">
-        <v>-0.01089204281169368</v>
+        <v>0.006355182930296023</v>
       </c>
       <c r="D21">
-        <v>0.01193307644995684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01958887282078672</v>
+      </c>
+      <c r="E21">
+        <v>-0.04069934657454365</v>
+      </c>
+      <c r="F21">
+        <v>-0.0133949729543702</v>
+      </c>
+      <c r="G21">
+        <v>0.008789619784910682</v>
+      </c>
+      <c r="H21">
+        <v>0.04025122131817267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08179625974343752</v>
+        <v>0.07390847773655837</v>
       </c>
       <c r="C22">
-        <v>-0.08565009333576197</v>
+        <v>-0.0256668499765506</v>
       </c>
       <c r="D22">
-        <v>0.1290393502935986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1051233685244975</v>
+      </c>
+      <c r="E22">
+        <v>-0.6028209125269657</v>
+      </c>
+      <c r="F22">
+        <v>-0.04069447187305582</v>
+      </c>
+      <c r="G22">
+        <v>-0.1812255242443851</v>
+      </c>
+      <c r="H22">
+        <v>0.1534387791935924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08290715663681518</v>
+        <v>0.07486171947026682</v>
       </c>
       <c r="C23">
-        <v>-0.08410904185935456</v>
+        <v>-0.02397082424975357</v>
       </c>
       <c r="D23">
-        <v>0.1303985754934681</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1057912682765635</v>
+      </c>
+      <c r="E23">
+        <v>-0.6051877920479236</v>
+      </c>
+      <c r="F23">
+        <v>-0.04002168694832606</v>
+      </c>
+      <c r="G23">
+        <v>-0.1760139433028739</v>
+      </c>
+      <c r="H23">
+        <v>0.148935697151708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07255090773581664</v>
+        <v>0.0789251674458049</v>
       </c>
       <c r="C24">
-        <v>-0.05370522033899391</v>
+        <v>-0.0146525781279661</v>
       </c>
       <c r="D24">
-        <v>0.05917820844017098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06566561452433568</v>
+      </c>
+      <c r="E24">
+        <v>-0.01317143107288222</v>
+      </c>
+      <c r="F24">
+        <v>0.03734899363835622</v>
+      </c>
+      <c r="G24">
+        <v>0.03716398445545692</v>
+      </c>
+      <c r="H24">
+        <v>-0.03347021627664509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07152265600014901</v>
+        <v>0.07807120925342399</v>
       </c>
       <c r="C25">
-        <v>-0.05588863664171397</v>
+        <v>-0.01999541677870884</v>
       </c>
       <c r="D25">
-        <v>0.05623054096434549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05898498052700517</v>
+      </c>
+      <c r="E25">
+        <v>-0.01663490971117845</v>
+      </c>
+      <c r="F25">
+        <v>0.03391311046433498</v>
+      </c>
+      <c r="G25">
+        <v>0.041474032641542</v>
+      </c>
+      <c r="H25">
+        <v>-0.04484444549550937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04384950071395489</v>
+        <v>0.04462159837857904</v>
       </c>
       <c r="C26">
-        <v>-0.01548333077990883</v>
+        <v>0.0004674251194475764</v>
       </c>
       <c r="D26">
-        <v>0.01045662435971324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0196719405988556</v>
+      </c>
+      <c r="E26">
+        <v>-0.0456586480631098</v>
+      </c>
+      <c r="F26">
+        <v>0.0271926215285056</v>
+      </c>
+      <c r="G26">
+        <v>0.02626194948112374</v>
+      </c>
+      <c r="H26">
+        <v>-0.04891706550581283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0374752614940622</v>
+        <v>0.06846366643054233</v>
       </c>
       <c r="C28">
-        <v>-0.04995262375958763</v>
+        <v>-0.1711207578911343</v>
       </c>
       <c r="D28">
-        <v>-0.3137200839831614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2704296908746093</v>
+      </c>
+      <c r="E28">
+        <v>-0.03459446647113313</v>
+      </c>
+      <c r="F28">
+        <v>0.0532292872904382</v>
+      </c>
+      <c r="G28">
+        <v>0.02709632677618485</v>
+      </c>
+      <c r="H28">
+        <v>0.05782920540537446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04298753122969703</v>
+        <v>0.04792939661918716</v>
       </c>
       <c r="C29">
-        <v>-0.04192568567777968</v>
+        <v>-0.02849603645685986</v>
       </c>
       <c r="D29">
-        <v>-0.003350662888829632</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02079305779962146</v>
+      </c>
+      <c r="E29">
+        <v>-0.0517311708714325</v>
+      </c>
+      <c r="F29">
+        <v>0.01975437213185663</v>
+      </c>
+      <c r="G29">
+        <v>0.002464996148513917</v>
+      </c>
+      <c r="H29">
+        <v>-0.0912777310116696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1308783725094919</v>
+        <v>0.1272824619140308</v>
       </c>
       <c r="C30">
-        <v>-0.1064871934151715</v>
+        <v>-0.04066546463947073</v>
       </c>
       <c r="D30">
-        <v>0.1031996371728428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09471277998174861</v>
+      </c>
+      <c r="E30">
+        <v>-0.0526902094082745</v>
+      </c>
+      <c r="F30">
+        <v>0.01585223380569182</v>
+      </c>
+      <c r="G30">
+        <v>0.07424751738633906</v>
+      </c>
+      <c r="H30">
+        <v>0.0363641183689767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04907579936735604</v>
+        <v>0.04925166706910725</v>
       </c>
       <c r="C31">
-        <v>-0.02681878076198199</v>
+        <v>-0.002140784861275023</v>
       </c>
       <c r="D31">
-        <v>0.0175212495292754</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03637056391848844</v>
+      </c>
+      <c r="E31">
+        <v>-0.02244854844999236</v>
+      </c>
+      <c r="F31">
+        <v>0.009871735405675241</v>
+      </c>
+      <c r="G31">
+        <v>-0.005699713246386556</v>
+      </c>
+      <c r="H31">
+        <v>-0.06417525241736069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03530989628401745</v>
+        <v>0.03782627507391688</v>
       </c>
       <c r="C32">
-        <v>-0.02539768157778462</v>
+        <v>-0.01859771166333143</v>
       </c>
       <c r="D32">
-        <v>0.02901606169358623</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01384012502184788</v>
+      </c>
+      <c r="E32">
+        <v>-0.04422997441172995</v>
+      </c>
+      <c r="F32">
+        <v>-0.003696429480701589</v>
+      </c>
+      <c r="G32">
+        <v>0.0466289827117382</v>
+      </c>
+      <c r="H32">
+        <v>-0.007561461550982364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08360482375511748</v>
+        <v>0.09361264122374167</v>
       </c>
       <c r="C33">
-        <v>-0.04808029836203832</v>
+        <v>-0.01258355073997675</v>
       </c>
       <c r="D33">
-        <v>0.04698027467677853</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05509656192483329</v>
+      </c>
+      <c r="E33">
+        <v>-0.01361808910492538</v>
+      </c>
+      <c r="F33">
+        <v>0.002037478799335932</v>
+      </c>
+      <c r="G33">
+        <v>0.005447276818833536</v>
+      </c>
+      <c r="H33">
+        <v>-0.0654115033463475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05824331570818592</v>
+        <v>0.06672295599668951</v>
       </c>
       <c r="C34">
-        <v>-0.02951986988819535</v>
+        <v>-0.002059801184199657</v>
       </c>
       <c r="D34">
-        <v>0.05197662870121603</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04811527575178509</v>
+      </c>
+      <c r="E34">
+        <v>-0.01344718485080901</v>
+      </c>
+      <c r="F34">
+        <v>0.01960870652545733</v>
+      </c>
+      <c r="G34">
+        <v>0.02423313495889528</v>
+      </c>
+      <c r="H34">
+        <v>-0.05305790252646624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03534408294055835</v>
+        <v>0.03710836099803992</v>
       </c>
       <c r="C35">
-        <v>-0.01594110993963241</v>
+        <v>-0.002952996495714714</v>
       </c>
       <c r="D35">
-        <v>0.01911062083765824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01981064915391936</v>
+      </c>
+      <c r="E35">
+        <v>-0.02139439352321681</v>
+      </c>
+      <c r="F35">
+        <v>-0.01540208130756939</v>
+      </c>
+      <c r="G35">
+        <v>-0.005160536627347728</v>
+      </c>
+      <c r="H35">
+        <v>-0.03674031354888237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02627995091839844</v>
+        <v>0.02800391913556281</v>
       </c>
       <c r="C36">
-        <v>-0.02134805963037778</v>
+        <v>-0.008583356136625538</v>
       </c>
       <c r="D36">
-        <v>0.01918132695694706</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02112827041317457</v>
+      </c>
+      <c r="E36">
+        <v>-0.03341581288951949</v>
+      </c>
+      <c r="F36">
+        <v>0.02694326877536613</v>
+      </c>
+      <c r="G36">
+        <v>0.012303281151066</v>
+      </c>
+      <c r="H36">
+        <v>-0.04383081343616498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05038280643887676</v>
+        <v>0.04821162446247659</v>
       </c>
       <c r="C38">
-        <v>-0.01306084209401766</v>
+        <v>0.006585770621721047</v>
       </c>
       <c r="D38">
-        <v>0.004179969053829458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02152928348311964</v>
+      </c>
+      <c r="E38">
+        <v>-0.0494519870407305</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009000495478262046</v>
+      </c>
+      <c r="G38">
+        <v>0.002358125482559004</v>
+      </c>
+      <c r="H38">
+        <v>-0.02897609921903664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08956843476590305</v>
+        <v>0.1003955712881768</v>
       </c>
       <c r="C39">
-        <v>-0.07704745402217078</v>
+        <v>-0.03444633269282849</v>
       </c>
       <c r="D39">
-        <v>0.0455289646148173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07365358046224493</v>
+      </c>
+      <c r="E39">
+        <v>-0.001896639632379353</v>
+      </c>
+      <c r="F39">
+        <v>0.003980592112223275</v>
+      </c>
+      <c r="G39">
+        <v>0.04958099120839352</v>
+      </c>
+      <c r="H39">
+        <v>-0.0306582252284551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07979839481739344</v>
+        <v>0.06090695795729663</v>
       </c>
       <c r="C40">
-        <v>-0.0417519724027311</v>
+        <v>0.005630076462337004</v>
       </c>
       <c r="D40">
-        <v>0.01099692593409944</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03545863601315691</v>
+      </c>
+      <c r="E40">
+        <v>-0.03977449704785833</v>
+      </c>
+      <c r="F40">
+        <v>-0.03748437673876071</v>
+      </c>
+      <c r="G40">
+        <v>0.06041155750312271</v>
+      </c>
+      <c r="H40">
+        <v>0.0757543354243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04489342865281881</v>
+        <v>0.04605231412589311</v>
       </c>
       <c r="C41">
-        <v>-0.02074717524248585</v>
+        <v>0.003530686544185854</v>
       </c>
       <c r="D41">
-        <v>0.03245102105179208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03404221626108276</v>
+      </c>
+      <c r="E41">
+        <v>-0.0008506935882193242</v>
+      </c>
+      <c r="F41">
+        <v>-0.01335867323218059</v>
+      </c>
+      <c r="G41">
+        <v>0.005952449379425144</v>
+      </c>
+      <c r="H41">
+        <v>-0.03333428986695767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0539085506082068</v>
+        <v>0.06013807340024997</v>
       </c>
       <c r="C43">
-        <v>-0.03198534823073192</v>
+        <v>-0.01032640538012504</v>
       </c>
       <c r="D43">
-        <v>0.006948074682652654</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03358995815674051</v>
+      </c>
+      <c r="E43">
+        <v>-0.0194940737805678</v>
+      </c>
+      <c r="F43">
+        <v>0.01235449861878482</v>
+      </c>
+      <c r="G43">
+        <v>-0.02030411198407082</v>
+      </c>
+      <c r="H43">
+        <v>-0.05985625201352524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09630728494283626</v>
+        <v>0.09477888288456461</v>
       </c>
       <c r="C44">
-        <v>-0.03713879229762201</v>
+        <v>0.002709776855728231</v>
       </c>
       <c r="D44">
-        <v>0.04921006997187656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0536294661800076</v>
+      </c>
+      <c r="E44">
+        <v>-0.07895992521417471</v>
+      </c>
+      <c r="F44">
+        <v>0.08116974023489289</v>
+      </c>
+      <c r="G44">
+        <v>0.06811704003336129</v>
+      </c>
+      <c r="H44">
+        <v>-0.0555586438455916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0254600573093423</v>
+        <v>0.03831115011458904</v>
       </c>
       <c r="C46">
-        <v>-0.02408320223010566</v>
+        <v>-0.01297827521280528</v>
       </c>
       <c r="D46">
-        <v>0.03026171511072759</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03817472050043159</v>
+      </c>
+      <c r="E46">
+        <v>-0.0319070556106579</v>
+      </c>
+      <c r="F46">
+        <v>0.01594400583386123</v>
+      </c>
+      <c r="G46">
+        <v>-0.005319414126072267</v>
+      </c>
+      <c r="H46">
+        <v>-0.03669919565833481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03155007773164278</v>
+        <v>0.04064389874406144</v>
       </c>
       <c r="C47">
-        <v>-0.02142729122124351</v>
+        <v>-0.01496568780081183</v>
       </c>
       <c r="D47">
-        <v>-0.004951242150737261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01329361356688858</v>
+      </c>
+      <c r="E47">
+        <v>-0.04246996131678461</v>
+      </c>
+      <c r="F47">
+        <v>-0.007691358474954642</v>
+      </c>
+      <c r="G47">
+        <v>-0.0355855932214915</v>
+      </c>
+      <c r="H47">
+        <v>-0.02636172864773131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03670920518986624</v>
+        <v>0.03968092079962214</v>
       </c>
       <c r="C48">
-        <v>-0.03004521525731122</v>
+        <v>-0.01221496084727982</v>
       </c>
       <c r="D48">
-        <v>0.02759398210812233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0240956941629474</v>
+      </c>
+      <c r="E48">
+        <v>-0.04023991278890587</v>
+      </c>
+      <c r="F48">
+        <v>0.006815937993134083</v>
+      </c>
+      <c r="G48">
+        <v>0.02084296389408846</v>
+      </c>
+      <c r="H48">
+        <v>-0.02548320556901358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1612644834853539</v>
+        <v>0.1969521697563381</v>
       </c>
       <c r="C49">
-        <v>-0.05470714321543553</v>
+        <v>-0.03033325282658165</v>
       </c>
       <c r="D49">
-        <v>0.004688937232228732</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03199858426448352</v>
+      </c>
+      <c r="E49">
+        <v>0.179831574664519</v>
+      </c>
+      <c r="F49">
+        <v>0.03445607174541516</v>
+      </c>
+      <c r="G49">
+        <v>-0.1319607456815491</v>
+      </c>
+      <c r="H49">
+        <v>0.2302838040708243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04501092316750743</v>
+        <v>0.04793928659294274</v>
       </c>
       <c r="C50">
-        <v>-0.03029025392426937</v>
+        <v>-0.008147326846424659</v>
       </c>
       <c r="D50">
-        <v>0.02728982477598666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03811113624522393</v>
+      </c>
+      <c r="E50">
+        <v>-0.02684408493318031</v>
+      </c>
+      <c r="F50">
+        <v>0.005098225103884302</v>
+      </c>
+      <c r="G50">
+        <v>-0.0007770193518653103</v>
+      </c>
+      <c r="H50">
+        <v>-0.07421293165056071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02395849754645738</v>
+        <v>0.03361911972116549</v>
       </c>
       <c r="C51">
-        <v>-0.006055037931490521</v>
+        <v>-0.004524301559305667</v>
       </c>
       <c r="D51">
-        <v>-0.002193579661959566</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.001705835268478424</v>
+      </c>
+      <c r="E51">
+        <v>-0.00709767440113605</v>
+      </c>
+      <c r="F51">
+        <v>0.01194882157201837</v>
+      </c>
+      <c r="G51">
+        <v>-0.01843183567333408</v>
+      </c>
+      <c r="H51">
+        <v>0.02013319820302712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1507486594089318</v>
+        <v>0.1609005078703651</v>
       </c>
       <c r="C53">
-        <v>-0.08375272854360979</v>
+        <v>-0.04689736307029338</v>
       </c>
       <c r="D53">
-        <v>-0.01195463320122805</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03179165333665395</v>
+      </c>
+      <c r="E53">
+        <v>0.03175660563896632</v>
+      </c>
+      <c r="F53">
+        <v>-0.0001926525034544066</v>
+      </c>
+      <c r="G53">
+        <v>-0.01413126905286382</v>
+      </c>
+      <c r="H53">
+        <v>-0.1933691734990254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05825015443349463</v>
+        <v>0.06004087242096803</v>
       </c>
       <c r="C54">
-        <v>-0.03441086701193398</v>
+        <v>-0.01910297357258663</v>
       </c>
       <c r="D54">
-        <v>0.01701054820972643</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01707793590129194</v>
+      </c>
+      <c r="E54">
+        <v>-0.05699665870691056</v>
+      </c>
+      <c r="F54">
+        <v>0.01824207597956531</v>
+      </c>
+      <c r="G54">
+        <v>0.05251997027852137</v>
+      </c>
+      <c r="H54">
+        <v>-0.05009755180929336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09799380333428778</v>
+        <v>0.1007621221836286</v>
       </c>
       <c r="C55">
-        <v>-0.05476134002831012</v>
+        <v>-0.02313266642470416</v>
       </c>
       <c r="D55">
-        <v>0.006138875880081461</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03367808181918253</v>
+      </c>
+      <c r="E55">
+        <v>0.003560053093665588</v>
+      </c>
+      <c r="F55">
+        <v>0.0197936308634193</v>
+      </c>
+      <c r="G55">
+        <v>0.008274369475326162</v>
+      </c>
+      <c r="H55">
+        <v>-0.1515538777933437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1472137858471017</v>
+        <v>0.1548254095472248</v>
       </c>
       <c r="C56">
-        <v>-0.08566187479045724</v>
+        <v>-0.03792235075419605</v>
       </c>
       <c r="D56">
-        <v>-0.00724183266798228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05109804880578741</v>
+      </c>
+      <c r="E56">
+        <v>0.01179392425653485</v>
+      </c>
+      <c r="F56">
+        <v>0.02148604341061826</v>
+      </c>
+      <c r="G56">
+        <v>-0.006161466560257084</v>
+      </c>
+      <c r="H56">
+        <v>-0.1961934265767847</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.132346179991363</v>
+        <v>0.09867799109046593</v>
       </c>
       <c r="C58">
-        <v>0.01637262427991637</v>
+        <v>0.07165617264560906</v>
       </c>
       <c r="D58">
-        <v>0.05005842703001295</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01414323543331629</v>
+      </c>
+      <c r="E58">
+        <v>-0.1252020015991538</v>
+      </c>
+      <c r="F58">
+        <v>0.03172814281773301</v>
+      </c>
+      <c r="G58">
+        <v>-0.08229425495628154</v>
+      </c>
+      <c r="H58">
+        <v>0.2030329155404542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1117379727818684</v>
+        <v>0.1457654493638645</v>
       </c>
       <c r="C59">
-        <v>-0.06072987696692864</v>
+        <v>-0.1869660691803567</v>
       </c>
       <c r="D59">
-        <v>-0.4126668901109143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3192390455964692</v>
+      </c>
+      <c r="E59">
+        <v>-0.02590803582910727</v>
+      </c>
+      <c r="F59">
+        <v>0.005874589466861595</v>
+      </c>
+      <c r="G59">
+        <v>0.00570082729050554</v>
+      </c>
+      <c r="H59">
+        <v>-0.01667547140853228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2039269766888263</v>
+        <v>0.2365999341544054</v>
       </c>
       <c r="C60">
-        <v>-0.1055758004308031</v>
+        <v>-0.05775336559321187</v>
       </c>
       <c r="D60">
-        <v>-0.001505052780021006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05873329701085868</v>
+      </c>
+      <c r="E60">
+        <v>0.1244573222888072</v>
+      </c>
+      <c r="F60">
+        <v>0.04443980239301752</v>
+      </c>
+      <c r="G60">
+        <v>-0.01721572137600084</v>
+      </c>
+      <c r="H60">
+        <v>0.153323588147438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07709872343628425</v>
+        <v>0.08486363963770935</v>
       </c>
       <c r="C61">
-        <v>-0.0499425140420866</v>
+        <v>-0.01926488508964139</v>
       </c>
       <c r="D61">
-        <v>0.02940658757572009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0497713395773639</v>
+      </c>
+      <c r="E61">
+        <v>-0.007991274775554162</v>
+      </c>
+      <c r="F61">
+        <v>0.01417947861507605</v>
+      </c>
+      <c r="G61">
+        <v>0.02904427535350404</v>
+      </c>
+      <c r="H61">
+        <v>-0.06881452315321468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1305711591041465</v>
+        <v>0.1366411646476149</v>
       </c>
       <c r="C62">
-        <v>-0.05323278474266526</v>
+        <v>-0.0119231820112425</v>
       </c>
       <c r="D62">
-        <v>-0.009444583767495865</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04340621528334476</v>
+      </c>
+      <c r="E62">
+        <v>0.03930335828859174</v>
+      </c>
+      <c r="F62">
+        <v>-0.02514686415471275</v>
+      </c>
+      <c r="G62">
+        <v>0.02089384128748395</v>
+      </c>
+      <c r="H62">
+        <v>-0.1920628091944049</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04975196358271178</v>
+        <v>0.04857561886319911</v>
       </c>
       <c r="C63">
-        <v>-0.02895444193843756</v>
+        <v>-0.009693816148706857</v>
       </c>
       <c r="D63">
-        <v>0.02287665060441065</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02562404444535315</v>
+      </c>
+      <c r="E63">
+        <v>-0.03912872394916469</v>
+      </c>
+      <c r="F63">
+        <v>0.0001612814571979541</v>
+      </c>
+      <c r="G63">
+        <v>0.03721066178980211</v>
+      </c>
+      <c r="H63">
+        <v>-0.03850465207817715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1061927482471252</v>
+        <v>0.1106589138493426</v>
       </c>
       <c r="C64">
-        <v>-0.04550238590116615</v>
+        <v>-0.01813729311821719</v>
       </c>
       <c r="D64">
-        <v>0.01520192010844057</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02912600796143172</v>
+      </c>
+      <c r="E64">
+        <v>-0.04305731693092706</v>
+      </c>
+      <c r="F64">
+        <v>0.04788810530017432</v>
+      </c>
+      <c r="G64">
+        <v>0.05521586675241711</v>
+      </c>
+      <c r="H64">
+        <v>-0.02719157508764349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1243849155086831</v>
+        <v>0.1307427476598479</v>
       </c>
       <c r="C65">
-        <v>-0.0688741697386103</v>
+        <v>-0.04577679982789914</v>
       </c>
       <c r="D65">
-        <v>0.005080595003742432</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02048885988444859</v>
+      </c>
+      <c r="E65">
+        <v>0.002060081583667895</v>
+      </c>
+      <c r="F65">
+        <v>0.02474512722816918</v>
+      </c>
+      <c r="G65">
+        <v>0.0677357406850993</v>
+      </c>
+      <c r="H65">
+        <v>0.1815992646868817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1483188402658097</v>
+        <v>0.1527087626353447</v>
       </c>
       <c r="C66">
-        <v>-0.08969908365515904</v>
+        <v>-0.01960098745053473</v>
       </c>
       <c r="D66">
-        <v>0.08881643675771599</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1104644010489014</v>
+      </c>
+      <c r="E66">
+        <v>0.02452244417906234</v>
+      </c>
+      <c r="F66">
+        <v>0.005045169051145648</v>
+      </c>
+      <c r="G66">
+        <v>0.0715206081330079</v>
+      </c>
+      <c r="H66">
+        <v>-0.09645003666249605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07864411857320658</v>
+        <v>0.08698167923129149</v>
       </c>
       <c r="C67">
-        <v>-0.02036345425519713</v>
+        <v>0.003379629387972813</v>
       </c>
       <c r="D67">
-        <v>0.01365744049759933</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03402466293481899</v>
+      </c>
+      <c r="E67">
+        <v>-0.01872777632860926</v>
+      </c>
+      <c r="F67">
+        <v>0.01635279717676087</v>
+      </c>
+      <c r="G67">
+        <v>-0.01168024811761969</v>
+      </c>
+      <c r="H67">
+        <v>-0.02746159898982691</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04679492781515474</v>
+        <v>0.06331548378435026</v>
       </c>
       <c r="C68">
-        <v>-0.03401413498904025</v>
+        <v>-0.1397214407828379</v>
       </c>
       <c r="D68">
-        <v>-0.2634726469922491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2453478804987036</v>
+      </c>
+      <c r="E68">
+        <v>-0.04501665147549893</v>
+      </c>
+      <c r="F68">
+        <v>0.0101625938428612</v>
+      </c>
+      <c r="G68">
+        <v>-0.001469638211296414</v>
+      </c>
+      <c r="H68">
+        <v>-0.01253946837538756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05420765457999409</v>
+        <v>0.05294043212223701</v>
       </c>
       <c r="C69">
-        <v>-0.0243810265812262</v>
+        <v>-0.002102837473936648</v>
       </c>
       <c r="D69">
-        <v>0.01856514311942237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02188290217772604</v>
+      </c>
+      <c r="E69">
+        <v>-0.02277511253922497</v>
+      </c>
+      <c r="F69">
+        <v>-0.01254543654271455</v>
+      </c>
+      <c r="G69">
+        <v>-0.002983517928378243</v>
+      </c>
+      <c r="H69">
+        <v>-0.04636470203718662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.006306207023819358</v>
+        <v>0.0310329672850513</v>
       </c>
       <c r="C70">
-        <v>0.002793374100328682</v>
+        <v>-0.004677262904888024</v>
       </c>
       <c r="D70">
-        <v>-0.008846693336623407</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005414789374896136</v>
+      </c>
+      <c r="E70">
+        <v>0.02262372920643517</v>
+      </c>
+      <c r="F70">
+        <v>-0.006866540152442967</v>
+      </c>
+      <c r="G70">
+        <v>-0.02514674688254193</v>
+      </c>
+      <c r="H70">
+        <v>0.02740412436388222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04358299749860462</v>
+        <v>0.0684806157755002</v>
       </c>
       <c r="C71">
-        <v>-0.03206576578458861</v>
+        <v>-0.1541741284071765</v>
       </c>
       <c r="D71">
-        <v>-0.2955579459813276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2669227254571978</v>
+      </c>
+      <c r="E71">
+        <v>-0.03953308463329295</v>
+      </c>
+      <c r="F71">
+        <v>0.03897060215759392</v>
+      </c>
+      <c r="G71">
+        <v>-0.001808286533039114</v>
+      </c>
+      <c r="H71">
+        <v>-0.01266186757692827</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.136966999949724</v>
+        <v>0.1415437822246702</v>
       </c>
       <c r="C72">
-        <v>-0.06466417901816929</v>
+        <v>-0.03212007491870621</v>
       </c>
       <c r="D72">
-        <v>-0.01586395196809665</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.009477278364377815</v>
+      </c>
+      <c r="E72">
+        <v>0.0390571660037078</v>
+      </c>
+      <c r="F72">
+        <v>-0.1649310907733577</v>
+      </c>
+      <c r="G72">
+        <v>0.1099957523219605</v>
+      </c>
+      <c r="H72">
+        <v>0.007084670487132053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2817325948876363</v>
+        <v>0.2838435686315751</v>
       </c>
       <c r="C73">
-        <v>-0.102482452371579</v>
+        <v>0.00290116286637089</v>
       </c>
       <c r="D73">
-        <v>0.04066072359401673</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09922214415051397</v>
+      </c>
+      <c r="E73">
+        <v>0.2783799572300769</v>
+      </c>
+      <c r="F73">
+        <v>0.06247800545806397</v>
+      </c>
+      <c r="G73">
+        <v>-0.2333147107087353</v>
+      </c>
+      <c r="H73">
+        <v>0.4139401138705107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07689457666730799</v>
+        <v>0.08925843581246333</v>
       </c>
       <c r="C74">
-        <v>-0.0736133122532449</v>
+        <v>-0.04094054473052547</v>
       </c>
       <c r="D74">
-        <v>0.002048010101410046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05212897126480558</v>
+      </c>
+      <c r="E74">
+        <v>0.008329029827581699</v>
+      </c>
+      <c r="F74">
+        <v>0.001485121500878805</v>
+      </c>
+      <c r="G74">
+        <v>-0.04097151998542589</v>
+      </c>
+      <c r="H74">
+        <v>-0.1278161103620113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09984455499982665</v>
+        <v>0.1016438004845442</v>
       </c>
       <c r="C75">
-        <v>-0.05438966758784595</v>
+        <v>-0.0153886464115934</v>
       </c>
       <c r="D75">
-        <v>6.401175961586424e-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03081978470616159</v>
+      </c>
+      <c r="E75">
+        <v>0.001966154517810241</v>
+      </c>
+      <c r="F75">
+        <v>0.000481103345374925</v>
+      </c>
+      <c r="G75">
+        <v>-0.01319505898724469</v>
+      </c>
+      <c r="H75">
+        <v>-0.09875111457522766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1263282508619901</v>
+        <v>0.1380133170705446</v>
       </c>
       <c r="C76">
-        <v>-0.07493966904624345</v>
+        <v>-0.03134144323161689</v>
       </c>
       <c r="D76">
-        <v>0.01877581135413052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06338294597040937</v>
+      </c>
+      <c r="E76">
+        <v>-0.009090323112315241</v>
+      </c>
+      <c r="F76">
+        <v>0.03333743190844959</v>
+      </c>
+      <c r="G76">
+        <v>-0.005208510930294926</v>
+      </c>
+      <c r="H76">
+        <v>-0.2347585872677012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1176189629776211</v>
+        <v>0.09971893696154577</v>
       </c>
       <c r="C77">
-        <v>-0.04121078665458452</v>
+        <v>0.012969891153968</v>
       </c>
       <c r="D77">
-        <v>0.07493909607529327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04289197753535187</v>
+      </c>
+      <c r="E77">
+        <v>-0.06234108618098878</v>
+      </c>
+      <c r="F77">
+        <v>0.06810193425649012</v>
+      </c>
+      <c r="G77">
+        <v>0.8156977189824779</v>
+      </c>
+      <c r="H77">
+        <v>0.2714880725914005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1065500428235322</v>
+        <v>0.1509852749211294</v>
       </c>
       <c r="C78">
-        <v>-0.05071064529313021</v>
+        <v>-0.02631457106574356</v>
       </c>
       <c r="D78">
-        <v>0.08129026380126159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08639421317361597</v>
+      </c>
+      <c r="E78">
+        <v>-0.04946616886158122</v>
+      </c>
+      <c r="F78">
+        <v>0.05866187389537428</v>
+      </c>
+      <c r="G78">
+        <v>0.03587012857522071</v>
+      </c>
+      <c r="H78">
+        <v>0.0892136948896159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1377599034194464</v>
+        <v>0.1438422380253474</v>
       </c>
       <c r="C79">
-        <v>-0.07141035269300693</v>
+        <v>-0.02277746273869922</v>
       </c>
       <c r="D79">
-        <v>0.02481693114855455</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05353781512153377</v>
+      </c>
+      <c r="E79">
+        <v>0.01151274178175378</v>
+      </c>
+      <c r="F79">
+        <v>0.01773903664995187</v>
+      </c>
+      <c r="G79">
+        <v>0.0134800530929824</v>
+      </c>
+      <c r="H79">
+        <v>-0.1686158693882432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04223979867897874</v>
+        <v>0.04194550628462875</v>
       </c>
       <c r="C80">
-        <v>-0.02386135492868979</v>
+        <v>-0.007417051680294179</v>
       </c>
       <c r="D80">
-        <v>0.02640131291367907</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01945092000411092</v>
+      </c>
+      <c r="E80">
+        <v>0.04297425939003659</v>
+      </c>
+      <c r="F80">
+        <v>0.005366730035414241</v>
+      </c>
+      <c r="G80">
+        <v>-0.01412340347253604</v>
+      </c>
+      <c r="H80">
+        <v>-0.02982404610991415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1225564496672532</v>
+        <v>0.1259124878290952</v>
       </c>
       <c r="C81">
-        <v>-0.07534872910118859</v>
+        <v>-0.03243312753555418</v>
       </c>
       <c r="D81">
-        <v>0.0125464075440949</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03978177542807122</v>
+      </c>
+      <c r="E81">
+        <v>-0.0008071404994718517</v>
+      </c>
+      <c r="F81">
+        <v>0.02564352996967092</v>
+      </c>
+      <c r="G81">
+        <v>-0.01196259666308771</v>
+      </c>
+      <c r="H81">
+        <v>-0.1528216408479118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1292543945105281</v>
+        <v>0.1317887539853513</v>
       </c>
       <c r="C82">
-        <v>-0.07177266106187567</v>
+        <v>-0.03146909645801847</v>
       </c>
       <c r="D82">
-        <v>0.007122658066387327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04107867239505061</v>
+      </c>
+      <c r="E82">
+        <v>0.02104652265726195</v>
+      </c>
+      <c r="F82">
+        <v>0.03923032908842101</v>
+      </c>
+      <c r="G82">
+        <v>-0.01522487953038801</v>
+      </c>
+      <c r="H82">
+        <v>-0.2253339100856683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06318877390380559</v>
+        <v>0.0802857801163246</v>
       </c>
       <c r="C83">
-        <v>0.01497344291990219</v>
+        <v>0.0291127449877432</v>
       </c>
       <c r="D83">
-        <v>0.02723428828237586</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01727286785160779</v>
+      </c>
+      <c r="E83">
+        <v>-0.01719096901345656</v>
+      </c>
+      <c r="F83">
+        <v>0.03241492907421543</v>
+      </c>
+      <c r="G83">
+        <v>-0.04598691029199894</v>
+      </c>
+      <c r="H83">
+        <v>0.03425601790363959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03131504862824112</v>
+        <v>0.03524102958753551</v>
       </c>
       <c r="C84">
-        <v>-0.04203220712666545</v>
+        <v>-0.0146968629879403</v>
       </c>
       <c r="D84">
-        <v>0.03060896947378042</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04663792005974846</v>
+      </c>
+      <c r="E84">
+        <v>-0.0215157203625597</v>
+      </c>
+      <c r="F84">
+        <v>-0.04035333185051209</v>
+      </c>
+      <c r="G84">
+        <v>-0.02932095967934362</v>
+      </c>
+      <c r="H84">
+        <v>-0.02093316056641748</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1155390506840493</v>
+        <v>0.1222352083687686</v>
       </c>
       <c r="C85">
-        <v>-0.046798938203801</v>
+        <v>-0.008683259467019472</v>
       </c>
       <c r="D85">
-        <v>0.04152564358756006</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04422610748637049</v>
+      </c>
+      <c r="E85">
+        <v>-0.009923632645243827</v>
+      </c>
+      <c r="F85">
+        <v>0.04041294327411566</v>
+      </c>
+      <c r="G85">
+        <v>-0.01087678967489052</v>
+      </c>
+      <c r="H85">
+        <v>-0.1453650114415836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04983598775568797</v>
+        <v>0.05261040971889427</v>
       </c>
       <c r="C86">
-        <v>-0.02705607133429242</v>
+        <v>0.0007803002780601197</v>
       </c>
       <c r="D86">
-        <v>0.07090096158822173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04114353126807378</v>
+      </c>
+      <c r="E86">
+        <v>-0.03772918782275576</v>
+      </c>
+      <c r="F86">
+        <v>0.02822528898580814</v>
+      </c>
+      <c r="G86">
+        <v>-0.02478597698706464</v>
+      </c>
+      <c r="H86">
+        <v>0.05319475195413991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1202927521253555</v>
+        <v>0.124659270672313</v>
       </c>
       <c r="C87">
-        <v>-0.08381291251648154</v>
+        <v>-0.02158418438438425</v>
       </c>
       <c r="D87">
-        <v>0.06040143793009504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07908985683937113</v>
+      </c>
+      <c r="E87">
+        <v>-0.02881967296502322</v>
+      </c>
+      <c r="F87">
+        <v>0.02568868279724867</v>
+      </c>
+      <c r="G87">
+        <v>0.1499367339526519</v>
+      </c>
+      <c r="H87">
+        <v>0.05853656266452866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05426311058358411</v>
+        <v>0.0632722711235762</v>
       </c>
       <c r="C88">
-        <v>-0.03700998457285211</v>
+        <v>-0.01222445177823748</v>
       </c>
       <c r="D88">
-        <v>0.02530267378618069</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04685275818703898</v>
+      </c>
+      <c r="E88">
+        <v>-0.001044341997980365</v>
+      </c>
+      <c r="F88">
+        <v>0.02321733432381715</v>
+      </c>
+      <c r="G88">
+        <v>0.009006672335348912</v>
+      </c>
+      <c r="H88">
+        <v>-0.05075087007150017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07262461304409223</v>
+        <v>0.1078980171365706</v>
       </c>
       <c r="C89">
-        <v>-0.05356344714775674</v>
+        <v>-0.1942336849335843</v>
       </c>
       <c r="D89">
-        <v>-0.3246157110713849</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3094701833037125</v>
+      </c>
+      <c r="E89">
+        <v>-0.04975578739123394</v>
+      </c>
+      <c r="F89">
+        <v>0.07207355857599629</v>
+      </c>
+      <c r="G89">
+        <v>-0.02843057221350013</v>
+      </c>
+      <c r="H89">
+        <v>-0.02560738030918277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0568128120509569</v>
+        <v>0.08151698198392109</v>
       </c>
       <c r="C90">
-        <v>-0.03847598415334806</v>
+        <v>-0.15038926764242</v>
       </c>
       <c r="D90">
-        <v>-0.2809612566618022</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2554277809471409</v>
+      </c>
+      <c r="E90">
+        <v>-0.05068653744774759</v>
+      </c>
+      <c r="F90">
+        <v>0.02900290374172534</v>
+      </c>
+      <c r="G90">
+        <v>0.03551949083297329</v>
+      </c>
+      <c r="H90">
+        <v>0.01770477140216902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09131262741508746</v>
+        <v>0.09066303522425948</v>
       </c>
       <c r="C91">
-        <v>-0.0570064705812377</v>
+        <v>-0.0177856229962515</v>
       </c>
       <c r="D91">
-        <v>0.004589456326363023</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03774465906067177</v>
+      </c>
+      <c r="E91">
+        <v>-0.003300434265241718</v>
+      </c>
+      <c r="F91">
+        <v>0.004436872151067204</v>
+      </c>
+      <c r="G91">
+        <v>-0.02596997162876414</v>
+      </c>
+      <c r="H91">
+        <v>-0.08297441251608415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0576239788261404</v>
+        <v>0.0814091915220107</v>
       </c>
       <c r="C92">
-        <v>-0.04654678337786401</v>
+        <v>-0.1738327080705768</v>
       </c>
       <c r="D92">
-        <v>-0.3332568093449985</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2934867812544194</v>
+      </c>
+      <c r="E92">
+        <v>-0.04442924643586457</v>
+      </c>
+      <c r="F92">
+        <v>0.03782744703339964</v>
+      </c>
+      <c r="G92">
+        <v>0.003284893339745271</v>
+      </c>
+      <c r="H92">
+        <v>-0.02294489212979109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05007611979483508</v>
+        <v>0.0789842770288158</v>
       </c>
       <c r="C93">
-        <v>-0.0449493152424606</v>
+        <v>-0.1685200257787432</v>
       </c>
       <c r="D93">
-        <v>-0.3075682642962944</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2684327473140758</v>
+      </c>
+      <c r="E93">
+        <v>-0.01693646791780281</v>
+      </c>
+      <c r="F93">
+        <v>0.029910611717949</v>
+      </c>
+      <c r="G93">
+        <v>0.01922191117290998</v>
+      </c>
+      <c r="H93">
+        <v>-0.007426678309293218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1282838606454045</v>
+        <v>0.1259647308594863</v>
       </c>
       <c r="C94">
-        <v>-0.04236347036994755</v>
+        <v>0.005605972654373499</v>
       </c>
       <c r="D94">
-        <v>0.04161464148650368</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0464830657929516</v>
+      </c>
+      <c r="E94">
+        <v>0.02097276183385951</v>
+      </c>
+      <c r="F94">
+        <v>0.018611178244698</v>
+      </c>
+      <c r="G94">
+        <v>-0.04394350209594327</v>
+      </c>
+      <c r="H94">
+        <v>-0.09954532998061498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1178686009151117</v>
+        <v>0.1295775525254858</v>
       </c>
       <c r="C95">
-        <v>-0.03637788367458689</v>
+        <v>0.00694653895272159</v>
       </c>
       <c r="D95">
-        <v>0.05868999057338033</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06196729103460318</v>
+      </c>
+      <c r="E95">
+        <v>-0.0118693899560253</v>
+      </c>
+      <c r="F95">
+        <v>0.05163676813920602</v>
+      </c>
+      <c r="G95">
+        <v>0.05076310921000046</v>
+      </c>
+      <c r="H95">
+        <v>0.08699703544809838</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2246444566454563</v>
+        <v>0.1936926003849395</v>
       </c>
       <c r="C97">
-        <v>-0.06000316507852179</v>
+        <v>-0.002567872264142445</v>
       </c>
       <c r="D97">
-        <v>-0.1225249183693247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05882227606279986</v>
+      </c>
+      <c r="E97">
+        <v>0.03143132308203431</v>
+      </c>
+      <c r="F97">
+        <v>-0.9378540630941296</v>
+      </c>
+      <c r="G97">
+        <v>0.0535379476326573</v>
+      </c>
+      <c r="H97">
+        <v>0.01242480958009213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2389677679682221</v>
+        <v>0.2738635632472414</v>
       </c>
       <c r="C98">
-        <v>-0.07130280403692651</v>
+        <v>-0.01804613019690385</v>
       </c>
       <c r="D98">
-        <v>0.008365996859637376</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04712383232495251</v>
+      </c>
+      <c r="E98">
+        <v>0.2155837405540458</v>
+      </c>
+      <c r="F98">
+        <v>0.03866707361428375</v>
+      </c>
+      <c r="G98">
+        <v>-0.2769073568516426</v>
+      </c>
+      <c r="H98">
+        <v>0.1698709113039754</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4465994388648429</v>
+        <v>0.2821127219630656</v>
       </c>
       <c r="C99">
-        <v>0.8781728748298334</v>
+        <v>0.8507833455018372</v>
       </c>
       <c r="D99">
-        <v>-0.01184102529753727</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.3996114284428621</v>
+      </c>
+      <c r="E99">
+        <v>-0.07803967416102421</v>
+      </c>
+      <c r="F99">
+        <v>0.07428039169902415</v>
+      </c>
+      <c r="G99">
+        <v>0.006557339546903157</v>
+      </c>
+      <c r="H99">
+        <v>-0.06287707948026917</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04303018463874723</v>
+        <v>0.04798940618112236</v>
       </c>
       <c r="C101">
-        <v>-0.04221998376770053</v>
+        <v>-0.02868904841969674</v>
       </c>
       <c r="D101">
-        <v>-0.003169979990950771</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02121419023430271</v>
+      </c>
+      <c r="E101">
+        <v>-0.05143683419699031</v>
+      </c>
+      <c r="F101">
+        <v>0.01986057046863245</v>
+      </c>
+      <c r="G101">
+        <v>0.00134720865338949</v>
+      </c>
+      <c r="H101">
+        <v>-0.08994287904371907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
